--- a/DokkanKits/75.xlsx
+++ b/DokkanKits/75.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D80124-B7B8-4CDA-AFB6-76721369ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DE3C47-E37F-4F30-963C-11592C09380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -830,7 +830,7 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -1119,6 +1119,9 @@
       <c r="B38">
         <v>1</v>
       </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
@@ -1138,6 +1141,9 @@
       <c r="B40">
         <v>1</v>
       </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
@@ -1180,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
@@ -1202,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
@@ -1223,6 +1229,9 @@
       <c r="B48">
         <v>1</v>
       </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
@@ -1241,6 +1250,9 @@
       </c>
       <c r="B50">
         <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
